--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H2">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I2">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J2">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.172908</v>
+        <v>1.672411</v>
       </c>
       <c r="N2">
-        <v>6.518724</v>
+        <v>5.017233</v>
       </c>
       <c r="O2">
-        <v>0.6836640069168457</v>
+        <v>0.6245395681653219</v>
       </c>
       <c r="P2">
-        <v>0.6836640069168457</v>
+        <v>0.624539568165322</v>
       </c>
       <c r="Q2">
-        <v>3.036510728428</v>
+        <v>0.419158041341</v>
       </c>
       <c r="R2">
-        <v>27.328596555852</v>
+        <v>3.772422372069</v>
       </c>
       <c r="S2">
-        <v>0.4564251336952256</v>
+        <v>0.1653992850320147</v>
       </c>
       <c r="T2">
-        <v>0.4564251336952257</v>
+        <v>0.1653992850320148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H3">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I3">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J3">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.019166</v>
       </c>
       <c r="O3">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="P3">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="Q3">
-        <v>0.9405551180686668</v>
+        <v>0.1686885312486667</v>
       </c>
       <c r="R3">
-        <v>8.464996062618001</v>
+        <v>1.518196781238</v>
       </c>
       <c r="S3">
-        <v>0.1413770718783084</v>
+        <v>0.06656430202881809</v>
       </c>
       <c r="T3">
-        <v>0.1413770718783084</v>
+        <v>0.06656430202881809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.397441</v>
+        <v>0.250631</v>
       </c>
       <c r="H4">
-        <v>4.192323</v>
+        <v>0.751893</v>
       </c>
       <c r="I4">
-        <v>0.6676161521996591</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="J4">
-        <v>0.6676161521996592</v>
+        <v>0.2648339568266264</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>0.332364</v>
       </c>
       <c r="N4">
-        <v>0.9970920000000001</v>
+        <v>0.997092</v>
       </c>
       <c r="O4">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="P4">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="Q4">
-        <v>0.464459080524</v>
+        <v>0.08330072168399999</v>
       </c>
       <c r="R4">
-        <v>4.180131724716</v>
+        <v>0.749706495156</v>
       </c>
       <c r="S4">
-        <v>0.06981394662612499</v>
+        <v>0.03287036976579354</v>
       </c>
       <c r="T4">
-        <v>0.069813946626125</v>
+        <v>0.03287036976579354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J5">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.172908</v>
+        <v>1.672411</v>
       </c>
       <c r="N5">
-        <v>6.518724</v>
+        <v>5.017233</v>
       </c>
       <c r="O5">
-        <v>0.6836640069168457</v>
+        <v>0.6245395681653219</v>
       </c>
       <c r="P5">
-        <v>0.6836640069168457</v>
+        <v>0.624539568165322</v>
       </c>
       <c r="Q5">
-        <v>0.5101437513973334</v>
+        <v>0.3926397350546667</v>
       </c>
       <c r="R5">
-        <v>4.591293762576</v>
+        <v>3.533757615492001</v>
       </c>
       <c r="S5">
-        <v>0.07668091792181951</v>
+        <v>0.1549351916175423</v>
       </c>
       <c r="T5">
-        <v>0.07668091792181951</v>
+        <v>0.1549351916175424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J6">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.019166</v>
       </c>
       <c r="O6">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="P6">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="Q6">
         <v>0.1580163415315556</v>
@@ -818,10 +818,10 @@
         <v>1.422147073784</v>
       </c>
       <c r="S6">
-        <v>0.02375181129259785</v>
+        <v>0.06235306813887784</v>
       </c>
       <c r="T6">
-        <v>0.02375181129259785</v>
+        <v>0.06235306813887784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.7043240000000001</v>
       </c>
       <c r="I7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="J7">
-        <v>0.112161700990566</v>
+        <v>0.2480790641859371</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>0.332364</v>
       </c>
       <c r="N7">
-        <v>0.9970920000000001</v>
+        <v>0.997092</v>
       </c>
       <c r="O7">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="P7">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="Q7">
-        <v>0.07803064731200002</v>
+        <v>0.078030647312</v>
       </c>
       <c r="R7">
         <v>0.7022758258080001</v>
       </c>
       <c r="S7">
-        <v>0.01172897177614866</v>
+        <v>0.03079080442951693</v>
       </c>
       <c r="T7">
-        <v>0.01172897177614866</v>
+        <v>0.03079080442951693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H8">
         <v>1.382894</v>
       </c>
       <c r="I8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J8">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.172908</v>
+        <v>1.672411</v>
       </c>
       <c r="N8">
-        <v>6.518724</v>
+        <v>5.017233</v>
       </c>
       <c r="O8">
-        <v>0.6836640069168457</v>
+        <v>0.6245395681653219</v>
       </c>
       <c r="P8">
-        <v>0.6836640069168457</v>
+        <v>0.624539568165322</v>
       </c>
       <c r="Q8">
-        <v>1.001633811917333</v>
+        <v>0.7709223791446667</v>
       </c>
       <c r="R8">
-        <v>9.014704307256</v>
+        <v>6.938301412302</v>
       </c>
       <c r="S8">
-        <v>0.1505579552998005</v>
+        <v>0.3042050915157648</v>
       </c>
       <c r="T8">
-        <v>0.1505579552998005</v>
+        <v>0.3042050915157649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H9">
         <v>1.382894</v>
       </c>
       <c r="I9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J9">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.019166</v>
       </c>
       <c r="O9">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="P9">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="Q9">
-        <v>0.3102547273782223</v>
+        <v>0.3102547273782222</v>
       </c>
       <c r="R9">
         <v>2.792292546404</v>
       </c>
       <c r="S9">
-        <v>0.04663512435422591</v>
+        <v>0.1224261615546898</v>
       </c>
       <c r="T9">
-        <v>0.04663512435422592</v>
+        <v>0.1224261615546898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4609646666666667</v>
+        <v>0.4609646666666666</v>
       </c>
       <c r="H10">
         <v>1.382894</v>
       </c>
       <c r="I10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="J10">
-        <v>0.2202221468097748</v>
+        <v>0.4870869789874365</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>0.332364</v>
       </c>
       <c r="N10">
-        <v>0.9970920000000001</v>
+        <v>0.997092</v>
       </c>
       <c r="O10">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="P10">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="Q10">
         <v>0.153208060472</v>
@@ -1066,10 +1066,10 @@
         <v>1.378872544248</v>
       </c>
       <c r="S10">
-        <v>0.02302906715574838</v>
+        <v>0.06045572591698192</v>
       </c>
       <c r="T10">
-        <v>0.02302906715574838</v>
+        <v>0.06045572591698193</v>
       </c>
     </row>
   </sheetData>
